--- a/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
+++ b/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">

--- a/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
+++ b/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2077,7 +2077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3285,12 +3285,196 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
           <t>POINT (72.531357 49.745427)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>M1438.P14</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>ventilation system</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>vent</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>45078</v>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Identified visually from Google Earth Pro satellite imagery.</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>ventilation shaft</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>extracted</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>M1438</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Qarmet JSC [100%]</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Qazaqstan Steel Group LLP</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gem.wiki/V._I._Lenin_(Kazakhstan)_coal_mine</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>V. I. Lenin (Kazakhstan) Coal Mine</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>Apr 15, 2025</t>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>POINT (72.530966 49.746095)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>M1438.P15</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>degasification system</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>drainage station</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>45078</v>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Identified visually from Google Earth Pro satellite imagery.</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>possible gas drainage station</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>extracted</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>M1438</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Qarmet JSC [100%]</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Qazaqstan Steel Group LLP</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>https://www.gem.wiki/V._I._Lenin_(Kazakhstan)_coal_mine</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>V. I. Lenin (Kazakhstan) Coal Mine</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>Apr 15, 2025</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>POINT (72.513121 49.735834)</t>
         </is>
       </c>
     </row>

--- a/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
+++ b/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">

--- a/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
+++ b/V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for V. I. Lenin (Kazakhstan) Coal Mine, Kazakhstan, M1438, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
